--- a/TestCases/Mars-QA TestCase-User Story1.xlsx
+++ b/TestCases/Mars-QA TestCase-User Story1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IC Course\MVP Studio\MVPStudio\TestCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IC Course\MarsQA\MarsQA\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -333,7 +333,7 @@
     <t xml:space="preserve"> TC_018</t>
   </si>
   <si>
-    <t>The record has been successfully deleted.</t>
+    <t>The record has been successfully deleted in skills.</t>
   </si>
 </sst>
 </file>
@@ -478,15 +478,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,10 +741,10 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -793,10 +793,10 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -845,10 +845,10 @@
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -897,10 +897,10 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -949,10 +949,10 @@
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -993,10 +993,10 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -1037,10 +1037,10 @@
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -1081,10 +1081,10 @@
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C42" s="6" t="s">
@@ -1135,10 +1135,10 @@
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="18" t="s">
         <v>44</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -1179,10 +1179,10 @@
       <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -1223,10 +1223,10 @@
       <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -1267,10 +1267,10 @@
       <c r="D63" s="5"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -1311,10 +1311,10 @@
       <c r="D68" s="5"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="14" t="s">
         <v>61</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -1355,10 +1355,10 @@
       <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="14" t="s">
         <v>65</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -1407,10 +1407,10 @@
       <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="17" t="s">
+      <c r="A80" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="14" t="s">
         <v>69</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -1463,10 +1463,10 @@
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B86" s="17" t="s">
+      <c r="B86" s="18" t="s">
         <v>79</v>
       </c>
       <c r="C86" s="6" t="s">
@@ -1501,10 +1501,10 @@
       <c r="D89" s="12"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B90" s="17" t="s">
+      <c r="B90" s="18" t="s">
         <v>85</v>
       </c>
       <c r="C90" s="4" t="s">
@@ -1544,10 +1544,10 @@
       <c r="D94" s="3"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="14" t="s">
         <v>89</v>
       </c>
       <c r="C95" s="6" t="s">
@@ -1588,10 +1588,10 @@
       <c r="D99" s="5"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="14" t="s">
+      <c r="A100" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="14" t="s">
         <v>92</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -1632,10 +1632,10 @@
       <c r="D104" s="5"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="14" t="s">
         <v>96</v>
       </c>
       <c r="C105" s="4" t="s">
@@ -1676,10 +1676,10 @@
       <c r="D109" s="5"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="17" t="s">
+      <c r="A110" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="14" t="s">
         <v>100</v>
       </c>
       <c r="C110" s="4" t="s">
@@ -1733,12 +1733,26 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="B105:B108"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
     <mergeCell ref="A74:A78"/>
     <mergeCell ref="B74:B78"/>
     <mergeCell ref="A42:A46"/>
@@ -1755,26 +1769,12 @@
     <mergeCell ref="A59:A62"/>
     <mergeCell ref="B59:B62"/>
     <mergeCell ref="A64:A67"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestCases/Mars-QA TestCase-User Story1.xlsx
+++ b/TestCases/Mars-QA TestCase-User Story1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="119">
   <si>
     <t xml:space="preserve">   TestCase Id</t>
   </si>
@@ -150,63 +150,27 @@
     <t>3.Click the login button</t>
   </si>
   <si>
-    <t>TC_009</t>
-  </si>
-  <si>
-    <t>Verify that user is able to edit record in languages</t>
-  </si>
-  <si>
     <t>1.Click on addnew button</t>
   </si>
   <si>
-    <t>The record has successfully addded in the languages</t>
-  </si>
-  <si>
-    <t>2.Enter the languages credentials</t>
-  </si>
-  <si>
-    <t>3.Choose the level</t>
-  </si>
-  <si>
     <t>4.Click the add button</t>
   </si>
   <si>
-    <t xml:space="preserve">        TC_010</t>
-  </si>
-  <si>
-    <t>Verify that user is able to edit record with numeric value in languages</t>
-  </si>
-  <si>
     <t>2.Enter the languages credentials with numeric value</t>
   </si>
   <si>
-    <t>TC_011</t>
-  </si>
-  <si>
-    <t>Verify that user is able to edit record with special character in languages</t>
-  </si>
-  <si>
     <t>2.Enter the languages credentials with special character</t>
   </si>
   <si>
     <t>TC_012</t>
   </si>
   <si>
-    <t>Verify that user is not able to edit record with null value in languages</t>
-  </si>
-  <si>
-    <t>The record has not added in the languages</t>
-  </si>
-  <si>
     <t>2.Leave the language with null value</t>
   </si>
   <si>
     <t>TC_013</t>
   </si>
   <si>
-    <t>Verify that user is not able to edit record without choose language level in languages</t>
-  </si>
-  <si>
     <t>2.Enter the language credentials</t>
   </si>
   <si>
@@ -216,57 +180,15 @@
     <t>TC_014</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify that language functionality accept Maximum four record </t>
-  </si>
-  <si>
-    <t>The user has successfully added the maximum of four language</t>
-  </si>
-  <si>
-    <t>5.Enter a maximum of four languages in the language field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        TC_015</t>
-  </si>
-  <si>
-    <t>Verify that user is able to update the existing record in languages</t>
-  </si>
-  <si>
     <t>1.Click the edit button symbol in the record</t>
   </si>
   <si>
-    <t>The record has successfully updated</t>
-  </si>
-  <si>
-    <t>2.Enter the credentials in the record</t>
-  </si>
-  <si>
     <t>3.Click the update button</t>
   </si>
   <si>
-    <t xml:space="preserve">       TC_016</t>
-  </si>
-  <si>
-    <t>Verify that user is able to delete the record in languages</t>
-  </si>
-  <si>
-    <t>Click the delete button symbol in the record</t>
-  </si>
-  <si>
-    <t>The record has been successfully deleted</t>
-  </si>
-  <si>
-    <t>TC_017</t>
-  </si>
-  <si>
-    <t>Verify user is able to add record in skills</t>
-  </si>
-  <si>
     <t>1.Click addnew button</t>
   </si>
   <si>
-    <t>The record has successfully added the skills</t>
-  </si>
-  <si>
     <t>2.Enter the skill credential</t>
   </si>
   <si>
@@ -276,71 +198,191 @@
     <t>4.Click the add new button</t>
   </si>
   <si>
-    <t>Verify that user is able to edit record with numeric value in skills</t>
-  </si>
-  <si>
-    <t>The record has successfully addded in the skills</t>
-  </si>
-  <si>
     <t>2.Enter the skill credentials with numeric value</t>
   </si>
   <si>
+    <t>2.Enter the skill credentials with special character</t>
+  </si>
+  <si>
+    <t>2.Leave the skill with null value</t>
+  </si>
+  <si>
+    <t>TC_021</t>
+  </si>
+  <si>
+    <t>2.Enter the skill credentials</t>
+  </si>
+  <si>
+    <t>3.Leave the skill level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that existing user is able to sign in using remember me </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.Enter the sign in credentials with valid EMail and password       </t>
+  </si>
+  <si>
+    <t>3.Click the remember me checkbox</t>
+  </si>
+  <si>
+    <t>4.Click the login button</t>
+  </si>
+  <si>
+    <t>User successfully sign in the application</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC_009</t>
+  </si>
+  <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        TC_011</t>
+  </si>
+  <si>
+    <t>TC_022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      TC_015</t>
+  </si>
+  <si>
+    <t>3.Choose the language level</t>
+  </si>
+  <si>
+    <t>The language already in language list</t>
+  </si>
+  <si>
+    <t>The skill already in skill list</t>
+  </si>
+  <si>
+    <t>TC_016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        TC_017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       TC_018</t>
+  </si>
+  <si>
     <t>TC_019</t>
   </si>
   <si>
-    <t>Verify that user is able to edit record with special character in skills</t>
-  </si>
-  <si>
-    <t>2.Enter the skill credentials with special character</t>
-  </si>
-  <si>
-    <t>TC_020</t>
-  </si>
-  <si>
-    <t>Verify that user is not able to edit record with null value in skill</t>
-  </si>
-  <si>
-    <t>The record has not added in the skills</t>
-  </si>
-  <si>
-    <t>2.Leave the skill with null value</t>
-  </si>
-  <si>
-    <t>TC_021</t>
-  </si>
-  <si>
-    <t>Verify that user is not able to edit record without choose skill level in skills</t>
-  </si>
-  <si>
-    <t>2.Enter the skill credentials</t>
-  </si>
-  <si>
-    <t>3.Leave the skill level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        TC_022</t>
-  </si>
-  <si>
-    <t>Verify that user is able to update the existing record in skills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       TC_023</t>
-  </si>
-  <si>
-    <t>Verify that user is able to delete the record in skills</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TC_018</t>
-  </si>
-  <si>
-    <t>The record has been successfully deleted in skills.</t>
+    <t xml:space="preserve"> TC_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      TC_023</t>
+  </si>
+  <si>
+    <t>TC_024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        TC_025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       TC_026</t>
+  </si>
+  <si>
+    <t>Verify that user is able to add languagelist in languages</t>
+  </si>
+  <si>
+    <t>Verify that user is able to add languagelist with numeric value in languages</t>
+  </si>
+  <si>
+    <t>The languagelist has successfully addded in the languages</t>
+  </si>
+  <si>
+    <t>3.Choose the languagelevel</t>
+  </si>
+  <si>
+    <t>Verify that user is able to add languagelist with special character in languages</t>
+  </si>
+  <si>
+    <t>Verify that user is not able to add languagelist with null value in languages</t>
+  </si>
+  <si>
+    <t>The languagelist has not added in the languages</t>
+  </si>
+  <si>
+    <t>Verify that user is not able to add languagelist without choose language level in languages</t>
+  </si>
+  <si>
+    <t>Verify that user is not able to add same languagelist in languages</t>
+  </si>
+  <si>
+    <t>Verify that language accept Maximum four languagelist</t>
+  </si>
+  <si>
+    <t>The user has successfully added the maximum of four languagelist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.Enter a maximum of four languagelist in the language </t>
+  </si>
+  <si>
+    <t>Verify that user is able to update the existing languagelist in languages</t>
+  </si>
+  <si>
+    <t>The languagelist has successfully updated</t>
+  </si>
+  <si>
+    <t>Verify that user is able to delete the languagelist in languages</t>
+  </si>
+  <si>
+    <t>2.Enter the credentials in the list</t>
+  </si>
+  <si>
+    <t>Click the delete button symbol in the list</t>
+  </si>
+  <si>
+    <t>The languagelist has been successfully deleted</t>
+  </si>
+  <si>
+    <t>The skil list has successfully added the skills</t>
+  </si>
+  <si>
+    <t>Verify user is able to add skill list in skills</t>
+  </si>
+  <si>
+    <t>Verify that user is able to add skill list with numeric value in skills</t>
+  </si>
+  <si>
+    <t>The skill list has successfully addded in the skills</t>
+  </si>
+  <si>
+    <t>Verify that user is able to add skill list with special character in skills</t>
+  </si>
+  <si>
+    <t>Verify that user is not able to add skill list with null value in skill</t>
+  </si>
+  <si>
+    <t>The skill list has not added in the skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is not able to add same skill list  in skills </t>
+  </si>
+  <si>
+    <t>Verify that user is not able to add skill list without choose skill level in skills</t>
+  </si>
+  <si>
+    <t>Verify that user is able to update the existing skill list in skills</t>
+  </si>
+  <si>
+    <t>The skill list has successfully updated</t>
+  </si>
+  <si>
+    <t>Verify that user is able to delete the skill list in skills</t>
+  </si>
+  <si>
+    <t>1.Click the edit button symbol in the list</t>
+  </si>
+  <si>
+    <t>The skill list has been successfully deleted in skills.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -366,6 +408,17 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -446,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -467,9 +520,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -477,15 +527,51 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -706,10 +792,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -741,46 +827,46 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
@@ -793,10 +879,10 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -807,32 +893,32 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="6" t="s">
         <v>11</v>
       </c>
@@ -845,10 +931,10 @@
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -859,32 +945,32 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="6" t="s">
         <v>11</v>
       </c>
@@ -897,10 +983,10 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="32" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -911,32 +997,32 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="6" t="s">
         <v>11</v>
       </c>
@@ -949,10 +1035,10 @@
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -963,24 +1049,24 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="6" t="s">
         <v>29</v>
       </c>
@@ -993,10 +1079,10 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="32" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -1007,24 +1093,24 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="6" t="s">
         <v>29</v>
       </c>
@@ -1037,10 +1123,10 @@
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="32" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -1051,24 +1137,24 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="6" t="s">
         <v>29</v>
       </c>
@@ -1081,10 +1167,10 @@
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="27" t="s">
         <v>39</v>
       </c>
       <c r="C42" s="6" t="s">
@@ -1095,666 +1181,784 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="6"/>
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
       <c r="C46" s="6"/>
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="6"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
+    <row r="48" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="19"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="21"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="20"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="D53" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="28"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="29"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="9"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="6" t="s">
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="28"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="29"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="9"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="28"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="18" t="s">
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="28"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="29"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="9"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="5"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="28"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="17" t="s">
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="29"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="5"/>
+    </row>
+    <row r="77" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="19"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78" s="5"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="19"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D79" s="5"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="20"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80" s="5"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="9"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="28"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="28"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="28"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="29"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B88" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="D88" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="28"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="29"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="6" t="s">
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B94" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D60" s="5"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D61" s="5"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" s="5"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="5"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="17" t="s">
+      <c r="D94" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="28"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="D95" s="11"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="28"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D64" s="8" t="s">
+      <c r="D96" s="11"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="29"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="6" t="s">
+      <c r="D97" s="11"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B98" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="28"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D65" s="5"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D66" s="5"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D67" s="5"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="5"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="17" t="s">
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="28"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D100" s="3"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="28"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D101" s="6"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="29"/>
+      <c r="B102" s="29"/>
+      <c r="D102" s="3"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B103" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="28"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="D104" s="5"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="28"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D105" s="5"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="29"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D106" s="5"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="9"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="5"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B108" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="28"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D70" s="5"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="6" t="s">
+      <c r="D109" s="5"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="28"/>
+      <c r="B110" s="28"/>
+      <c r="C110" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D110" s="5"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="29"/>
+      <c r="B111" s="29"/>
+      <c r="C111" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D111" s="5"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="14"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="5"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B113" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D113" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="19"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D71" s="5"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D72" s="5"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="10"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="5"/>
-    </row>
-    <row r="74" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="17" t="s">
+      <c r="D114" s="5"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="19"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D115" s="5"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="20"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D116" s="5"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="9"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="5"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B118" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="28"/>
+      <c r="B119" s="28"/>
+      <c r="C119" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" s="5"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="28"/>
+      <c r="B120" s="28"/>
+      <c r="C120" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B74" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D75" s="3"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D76" s="3"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D77" s="3"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="16"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D78" s="3"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D81" s="3"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="16"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D82" s="3"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B86" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="15"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D87" s="12"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="15"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D88" s="12"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="16"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D89" s="12"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="17" t="s">
+      <c r="D120" s="5"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="29"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D121" s="5"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="9"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="5"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B123" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="28"/>
+      <c r="B124" s="28"/>
+      <c r="C124" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D124" s="3"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="29"/>
+      <c r="B125" s="29"/>
+      <c r="C125" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D125" s="3"/>
+    </row>
+    <row r="126" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A126" s="12"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C127" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B90" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="15"/>
-      <c r="B91" s="15"/>
-      <c r="C91" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D91" s="3"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="15"/>
-      <c r="B92" s="15"/>
-      <c r="C92" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D92" s="3"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="15"/>
-      <c r="B93" s="15"/>
-      <c r="C93" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D93" s="6"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="16"/>
-      <c r="B94" s="16"/>
-      <c r="D94" s="3"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B95" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="15"/>
-      <c r="B96" s="15"/>
-      <c r="C96" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D96" s="5"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="15"/>
-      <c r="B97" s="15"/>
-      <c r="C97" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D97" s="5"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="16"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D98" s="5"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="5"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="15"/>
-      <c r="B101" s="15"/>
-      <c r="C101" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D101" s="5"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="15"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D102" s="5"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="16"/>
-      <c r="B103" s="16"/>
-      <c r="C103" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D103" s="5"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="10"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="5"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="15"/>
-      <c r="B106" s="15"/>
-      <c r="C106" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D106" s="5"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="15"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D107" s="5"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="16"/>
-      <c r="B108" s="16"/>
-      <c r="C108" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D108" s="5"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="10"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="5"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="15"/>
-      <c r="B111" s="15"/>
-      <c r="C111" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D111" s="3"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="16"/>
-      <c r="B112" s="16"/>
-      <c r="C112" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D112" s="3"/>
-    </row>
-    <row r="113" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="13"/>
-      <c r="B113" s="13"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="13"/>
-      <c r="B115" s="13"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
+      <c r="D127" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A128" s="12"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="B108:B111"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
     <mergeCell ref="A42:A46"/>
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="A9:A13"/>
@@ -1764,17 +1968,17 @@
     <mergeCell ref="A21:A25"/>
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="B37:B40"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
     <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestCases/Mars-QA TestCase-User Story1.xlsx
+++ b/TestCases/Mars-QA TestCase-User Story1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="120">
   <si>
     <t xml:space="preserve">   TestCase Id</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>The skill list has been successfully deleted in skills.</t>
+  </si>
+  <si>
+    <t>User should not allowed to create the account in the application.</t>
   </si>
 </sst>
 </file>
@@ -557,22 +560,22 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,8 +797,8 @@
   </sheetPr>
   <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -827,10 +830,10 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -879,10 +882,10 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -931,17 +934,17 @@
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -983,10 +986,10 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1035,10 +1038,10 @@
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="32" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1079,10 +1082,10 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="30" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -1123,10 +1126,10 @@
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="30" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -1167,10 +1170,10 @@
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="32" t="s">
         <v>39</v>
       </c>
       <c r="C42" s="6" t="s">
@@ -1259,10 +1262,10 @@
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="30" t="s">
         <v>87</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -1295,10 +1298,10 @@
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="27" t="s">
+      <c r="B57" s="32" t="s">
         <v>88</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -1339,10 +1342,10 @@
       <c r="D61" s="5"/>
     </row>
     <row r="62" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="32" t="s">
         <v>91</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -1383,10 +1386,10 @@
       <c r="D66" s="5"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="30" t="s">
+      <c r="A67" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="32" t="s">
         <v>92</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -1427,10 +1430,10 @@
       <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B72" s="27" t="s">
+      <c r="B72" s="32" t="s">
         <v>94</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -1515,10 +1518,10 @@
       <c r="D81" s="5"/>
     </row>
     <row r="82" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B82" s="27" t="s">
+      <c r="B82" s="32" t="s">
         <v>96</v>
       </c>
       <c r="C82" s="4" t="s">
@@ -1567,10 +1570,10 @@
       <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="33" t="s">
+      <c r="A88" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B88" s="27" t="s">
+      <c r="B88" s="32" t="s">
         <v>99</v>
       </c>
       <c r="C88" s="4" t="s">
@@ -1623,10 +1626,10 @@
       <c r="D93" s="3"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="30" t="s">
+      <c r="A94" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B94" s="32" t="s">
+      <c r="B94" s="30" t="s">
         <v>106</v>
       </c>
       <c r="C94" s="6" t="s">
@@ -1661,10 +1664,10 @@
       <c r="D97" s="11"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="30" t="s">
+      <c r="A98" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B98" s="32" t="s">
+      <c r="B98" s="30" t="s">
         <v>107</v>
       </c>
       <c r="C98" s="4" t="s">
@@ -1704,10 +1707,10 @@
       <c r="D102" s="3"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="30" t="s">
+      <c r="A103" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B103" s="27" t="s">
+      <c r="B103" s="32" t="s">
         <v>109</v>
       </c>
       <c r="C103" s="6" t="s">
@@ -1748,10 +1751,10 @@
       <c r="D107" s="5"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="30" t="s">
+      <c r="A108" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B108" s="27" t="s">
+      <c r="B108" s="32" t="s">
         <v>110</v>
       </c>
       <c r="C108" s="4" t="s">
@@ -1836,10 +1839,10 @@
       <c r="D117" s="5"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="30" t="s">
+      <c r="A118" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B118" s="27" t="s">
+      <c r="B118" s="32" t="s">
         <v>113</v>
       </c>
       <c r="C118" s="4" t="s">
@@ -1880,10 +1883,10 @@
       <c r="D122" s="5"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="33" t="s">
+      <c r="A123" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B123" s="27" t="s">
+      <c r="B123" s="32" t="s">
         <v>114</v>
       </c>
       <c r="C123" s="4" t="s">
@@ -1937,26 +1940,12 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="A108:A111"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="B108:B111"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B55"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B82:B86"/>
     <mergeCell ref="A42:A46"/>
@@ -1973,12 +1962,26 @@
     <mergeCell ref="A62:A65"/>
     <mergeCell ref="B62:B65"/>
     <mergeCell ref="A67:A70"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="B98:B102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
